--- a/Robot arm/Coordinates.xlsx
+++ b/Robot arm/Coordinates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jruoc\Documents\GitHub\Mobile-Motion-Tracking-Robot-Arm\Robot arm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\GitHub\Mobile-Motion-Tracking-Robot-Arm\Robot arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6036"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="17250" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,14 +406,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.44140625" customWidth="1"/>
+    <col min="1" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -434,7 +436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -457,7 +459,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -474,13 +476,13 @@
         <v>1970</v>
       </c>
       <c r="F3" s="1">
+        <v>860</v>
+      </c>
+      <c r="G3" s="1">
         <v>1800</v>
       </c>
-      <c r="G3" s="1">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -494,10 +496,10 @@
       </c>
       <c r="F5">
         <f>SLOPE(F3:G3, F2:G2)</f>
-        <v>3133.333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-3133.333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -511,13 +513,13 @@
       </c>
       <c r="F6">
         <f>INTERCEPT(F3:G3,F2:G2)</f>
-        <v>-1646.6666666666665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4306.6666666666661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -525,7 +527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -539,7 +541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -547,7 +549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -558,7 +560,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -579,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -608,59 +610,59 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1">
-        <f>B3</f>
-        <v>2500</v>
+        <f>B3-50</f>
+        <v>2450</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:G15" si="0">C3</f>
-        <v>1200</v>
+        <f>C3+50</f>
+        <v>1250</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>1080</v>
+        <f>D3-50</f>
+        <v>1030</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>1970</v>
+        <f>E3+50</f>
+        <v>2020</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>1800</v>
+        <f>F3-50</f>
+        <v>810</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>860</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <f>G3+50</f>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <f>SLOPE(B15:C15, B14:C14)</f>
-        <v>1624.9999999999998</v>
+        <v>1499.9999999999998</v>
       </c>
       <c r="D17">
         <f>SLOPE(D15:E15, D14:E14)</f>
-        <v>-1112.4999999999998</v>
+        <v>-1237.4999999999998</v>
       </c>
       <c r="F17">
         <f>SLOPE(F15:G15, F14:G14)</f>
-        <v>1879.9999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-2079.9999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B18">
         <f>INTERCEPT(B15:C15,B14:C14)</f>
-        <v>1525</v>
+        <v>1550</v>
       </c>
       <c r="D18">
         <f>INTERCEPT(D15:E15,D14:E14)</f>
@@ -668,7 +670,7 @@
       </c>
       <c r="F18">
         <f>INTERCEPT(F15:G15,F14:G14)</f>
-        <v>-456</v>
+        <v>3306</v>
       </c>
     </row>
   </sheetData>

--- a/Robot arm/Coordinates.xlsx
+++ b/Robot arm/Coordinates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\GitHub\Mobile-Motion-Tracking-Robot-Arm\Robot arm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jruoc\Documents\GitHub\Mobile-Motion-Tracking-Robot-Arm\Robot arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="17250" windowHeight="6030"/>
+    <workbookView xWindow="948" yWindow="0" windowWidth="17256" windowHeight="6036"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,15 +407,15 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="9.42578125" customWidth="1"/>
+    <col min="1" max="7" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -459,7 +459,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -476,13 +476,13 @@
         <v>1970</v>
       </c>
       <c r="F3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G3" s="1">
         <v>860</v>
       </c>
-      <c r="G3" s="1">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -496,10 +496,10 @@
       </c>
       <c r="F5">
         <f>SLOPE(F3:G3, F2:G2)</f>
-        <v>-3133.333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3133.333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -513,13 +513,13 @@
       </c>
       <c r="F6">
         <f>INTERCEPT(F3:G3,F2:G2)</f>
-        <v>4306.6666666666661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1646.6666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -527,7 +527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -549,7 +549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -560,7 +560,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -632,14 +632,14 @@
       </c>
       <c r="F15" s="1">
         <f>F3-50</f>
-        <v>810</v>
+        <v>1750</v>
       </c>
       <c r="G15" s="1">
         <f>G3+50</f>
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -653,10 +653,10 @@
       </c>
       <c r="F17">
         <f>SLOPE(F15:G15, F14:G14)</f>
-        <v>-2079.9999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1679.9999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -670,7 +670,7 @@
       </c>
       <c r="F18">
         <f>INTERCEPT(F15:G15,F14:G14)</f>
-        <v>3306</v>
+        <v>-266</v>
       </c>
     </row>
   </sheetData>

--- a/Robot arm/Coordinates.xlsx
+++ b/Robot arm/Coordinates.xlsx
@@ -90,6 +90,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,9 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -407,7 +413,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,22 +446,22 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>-0.1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-0.3</v>
       </c>
-      <c r="F2" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.8</v>
       </c>
     </row>
@@ -476,10 +482,10 @@
         <v>1970</v>
       </c>
       <c r="F3" s="1">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="G3" s="1">
-        <v>860</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -496,7 +502,7 @@
       </c>
       <c r="F5">
         <f>SLOPE(F3:G3, F2:G2)</f>
-        <v>3133.333333333333</v>
+        <v>2500.0000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -513,7 +519,7 @@
       </c>
       <c r="F6">
         <f>INTERCEPT(F3:G3,F2:G2)</f>
-        <v>-1646.6666666666665</v>
+        <v>-1000.0000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -558,6 +564,9 @@
       </c>
       <c r="D12" s="1">
         <v>0.1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -603,11 +612,10 @@
       </c>
       <c r="F14" s="1">
         <f>F2+$D$12</f>
-        <v>1.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G14" s="1">
-        <f>G2-$D$12</f>
-        <v>0.70000000000000007</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -615,28 +623,26 @@
         <v>7</v>
       </c>
       <c r="B15" s="1">
-        <f>B3-50</f>
-        <v>2450</v>
+        <f>B3+$E$12</f>
+        <v>2510</v>
       </c>
       <c r="C15" s="1">
-        <f>C3+50</f>
-        <v>1250</v>
+        <f>C3-$E$12</f>
+        <v>1190</v>
       </c>
       <c r="D15" s="1">
-        <f>D3-50</f>
-        <v>1030</v>
+        <f>D3+$E$12</f>
+        <v>1090</v>
       </c>
       <c r="E15" s="1">
-        <f>E3+50</f>
-        <v>2020</v>
+        <f>E3-$E$12</f>
+        <v>1960</v>
       </c>
       <c r="F15" s="1">
-        <f>F3-50</f>
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="G15" s="1">
-        <f>G3+50</f>
-        <v>910</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -645,15 +651,15 @@
       </c>
       <c r="B17">
         <f>SLOPE(B15:C15, B14:C14)</f>
-        <v>1499.9999999999998</v>
+        <v>1649.9999999999998</v>
       </c>
       <c r="D17">
         <f>SLOPE(D15:E15, D14:E14)</f>
-        <v>-1237.4999999999998</v>
+        <v>-1087.4999999999998</v>
       </c>
       <c r="F17">
         <f>SLOPE(F15:G15, F14:G14)</f>
-        <v>1679.9999999999998</v>
+        <v>1999.9999999999991</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -662,7 +668,7 @@
       </c>
       <c r="B18">
         <f>INTERCEPT(B15:C15,B14:C14)</f>
-        <v>1550</v>
+        <v>1520</v>
       </c>
       <c r="D18">
         <f>INTERCEPT(D15:E15,D14:E14)</f>
@@ -670,7 +676,7 @@
       </c>
       <c r="F18">
         <f>INTERCEPT(F15:G15,F14:G14)</f>
-        <v>-266</v>
+        <v>-699.99999999999932</v>
       </c>
     </row>
   </sheetData>

--- a/Robot arm/Coordinates.xlsx
+++ b/Robot arm/Coordinates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Max X</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Adjust by</t>
+  </si>
+  <si>
+    <t>new starting pos</t>
   </si>
 </sst>
 </file>
@@ -410,15 +413,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -453,10 +457,10 @@
         <v>-0.1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -498,7 +502,7 @@
       </c>
       <c r="D5">
         <f>SLOPE(D3:E3, D2:E2)</f>
-        <v>-1483.3333333333335</v>
+        <v>-2224.9999999999995</v>
       </c>
       <c r="F5">
         <f>SLOPE(F3:G3, F2:G2)</f>
@@ -595,27 +599,22 @@
         <v>6</v>
       </c>
       <c r="B14" s="1">
-        <f>B2+$D$12</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C14" s="1">
-        <f>C2-$D$12</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="D14" s="1">
-        <f>D2+$D$12</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E14" s="1">
-        <f>E2-$D$12</f>
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="F14" s="1">
-        <f>F2+$D$12</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="G14" s="1">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -623,12 +622,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="1">
-        <f>B3+$E$12</f>
-        <v>2510</v>
+        <v>2130</v>
       </c>
       <c r="C15" s="1">
-        <f>C3-$E$12</f>
-        <v>1190</v>
+        <v>1550</v>
       </c>
       <c r="D15" s="1">
         <f>D3+$E$12</f>
@@ -651,15 +648,15 @@
       </c>
       <c r="B17">
         <f>SLOPE(B15:C15, B14:C14)</f>
-        <v>1649.9999999999998</v>
+        <v>1160</v>
       </c>
       <c r="D17">
         <f>SLOPE(D15:E15, D14:E14)</f>
-        <v>-1087.4999999999998</v>
+        <v>-2174.9999999999995</v>
       </c>
       <c r="F17">
         <f>SLOPE(F15:G15, F14:G14)</f>
-        <v>1999.9999999999991</v>
+        <v>1666.6666666666665</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -668,15 +665,23 @@
       </c>
       <c r="B18">
         <f>INTERCEPT(B15:C15,B14:C14)</f>
-        <v>1520</v>
+        <v>1666</v>
       </c>
       <c r="D18">
         <f>INTERCEPT(D15:E15,D14:E14)</f>
-        <v>1525</v>
+        <v>1742.5</v>
       </c>
       <c r="F18">
         <f>INTERCEPT(F15:G15,F14:G14)</f>
-        <v>-699.99999999999932</v>
+        <v>-333.33333333333326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1840</v>
       </c>
     </row>
   </sheetData>

--- a/Robot arm/Coordinates.xlsx
+++ b/Robot arm/Coordinates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jruoc\Documents\GitHub\Mobile-Motion-Tracking-Robot-Arm\Robot arm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\GitHub\Mobile-Motion-Tracking-Robot-Arm\Robot arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="948" yWindow="0" windowWidth="17256" windowHeight="6036"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="17250" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Max X</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>new starting pos</t>
+  </si>
+  <si>
+    <t>Kinect Coordinate</t>
+  </si>
+  <si>
+    <t>Servo Position</t>
   </si>
 </sst>
 </file>
@@ -415,17 +421,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -446,7 +450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -469,7 +473,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -492,7 +496,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -509,7 +513,7 @@
         <v>2500.0000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -526,10 +530,10 @@
         <v>-1000.0000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -537,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -551,7 +555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -559,7 +563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -573,7 +577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -594,9 +598,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>0.4</v>
@@ -617,9 +621,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>2130</v>
@@ -642,7 +646,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -659,7 +663,7 @@
         <v>1666.6666666666665</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -676,7 +680,7 @@
         <v>-333.33333333333326</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>

--- a/Robot arm/Coordinates.xlsx
+++ b/Robot arm/Coordinates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jruoc\Documents\GitHub\Mobile-Motion-Tracking-Robot-Arm\Robot arm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\GitHub\Mobile-Motion-Tracking-Robot-Arm\Robot arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="948" yWindow="0" windowWidth="17256" windowHeight="6036"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="17250" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,16 +416,16 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -469,7 +469,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -492,7 +492,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -509,7 +509,7 @@
         <v>2500.0000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -526,10 +526,10 @@
         <v>-1000.0000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -537,7 +537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -551,7 +551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -559,7 +559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -608,16 +608,16 @@
         <v>0.3</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F14" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="G14" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -642,7 +642,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -652,14 +652,14 @@
       </c>
       <c r="D17">
         <f>SLOPE(D15:E15, D14:E14)</f>
-        <v>-2174.9999999999995</v>
+        <v>-1740</v>
       </c>
       <c r="F17">
         <f>SLOPE(F15:G15, F14:G14)</f>
-        <v>1666.6666666666665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1428.5714285714287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -669,14 +669,14 @@
       </c>
       <c r="D18">
         <f>INTERCEPT(D15:E15,D14:E14)</f>
-        <v>1742.5</v>
+        <v>1612</v>
       </c>
       <c r="F18">
         <f>INTERCEPT(F15:G15,F14:G14)</f>
-        <v>-333.33333333333326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-214.28571428571422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
